--- a/Assignments/Assignment 1/Results Assignment 1.xlsx
+++ b/Assignments/Assignment 1/Results Assignment 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bache\Documents\Studium&amp;Beruf\Uni\Master\1.Semester\Survey Tut\Survey_Tutorial_24_25\Assignments\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\Studium\Tutorials\Tutorat ISM\Survey_Tutorial_24_25\Assignments\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82605F30-0CD3-4AE5-A643-9360357C98E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC74D2E-2DB8-4CDA-AF95-35AC82ECDA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>01/1083718</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>01/1390759</t>
+  </si>
+  <si>
+    <t>01/1369906</t>
   </si>
 </sst>
 </file>
@@ -256,8 +262,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,18 +541,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -554,7 +560,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -562,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -570,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -578,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -586,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -594,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -602,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -610,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -618,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -626,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -634,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -642,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -650,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -658,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -666,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -674,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -682,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -690,7 +696,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -698,7 +704,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -706,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -714,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -722,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -730,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -738,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -746,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -754,7 +760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -762,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -770,7 +776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -778,15 +784,15 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -794,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -802,7 +808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -810,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -818,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -826,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -834,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -842,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -850,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -858,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -866,7 +872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -874,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -882,7 +888,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -890,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -898,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -906,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -914,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -922,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -930,7 +936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -938,7 +944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -946,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -954,7 +960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -962,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -970,7 +976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -978,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -986,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -1018,11 +1024,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
         <v>7</v>
       </c>
     </row>

--- a/Assignments/Assignment 1/Results Assignment 1.xlsx
+++ b/Assignments/Assignment 1/Results Assignment 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\Studium\Tutorials\Tutorat ISM\Survey_Tutorial_24_25\Assignments\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC74D2E-2DB8-4CDA-AF95-35AC82ECDA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5D9A33-4B8A-432A-97F2-D7B3BB7C9EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,31 +746,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1">
+        <v>32</v>
+      </c>
+      <c r="B26">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -778,17 +778,17 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B29">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30">
         <v>6.5</v>
       </c>
     </row>
@@ -914,15 +914,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -938,31 +938,31 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="1">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="1">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1">
         <v>6</v>
@@ -970,23 +970,23 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -994,23 +994,23 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="1">
-        <v>6.5</v>
+        <v>39</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1">
         <v>7</v>
@@ -1018,31 +1018,31 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
+        <v>7</v>
+      </c>
+      <c r="B61">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B60">
-    <sortCondition ref="A1:A60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
+    <sortCondition ref="A1:A61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
